--- a/assist/python/integer/credit_card/credit_info.xlsx
+++ b/assist/python/integer/credit_card/credit_info.xlsx
@@ -314,7 +314,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="mm/dd;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -352,6 +352,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -529,7 +530,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="7" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -544,7 +545,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -869,7 +870,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1001,8 +1002,12 @@
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="12">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12">
+        <v>7</v>
+      </c>
       <c r="H5" s="3">
         <v>19000</v>
       </c>
@@ -1070,7 +1075,9 @@
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12">
+        <v>18</v>
+      </c>
       <c r="F8" s="12">
         <v>8</v>
       </c>
@@ -1190,7 +1197,9 @@
       <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11">
+        <v>45655</v>
+      </c>
       <c r="E13" s="12">
         <v>28</v>
       </c>

--- a/assist/python/integer/credit_card/credit_info.xlsx
+++ b/assist/python/integer/credit_card/credit_info.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\test\ubuntu_configure\assist\python\integer\credit_card\"/>
@@ -867,10 +867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/assist/python/integer/credit_card/credit_info.xlsx
+++ b/assist/python/integer/credit_card/credit_info.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="credit_info" sheetId="1" r:id="rId1"/>
+    <sheet name="使用情况" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -111,8 +112,96 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>China</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>China:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+账单日</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>China:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+还款日</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>China:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+账单日刷卡计入当前周期</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>交行-金卡</t>
   </si>
@@ -307,6 +396,145 @@
     <t>billday_included</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>分期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月分期额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>期数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠款情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金卡</t>
+  </si>
+  <si>
+    <t>金卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分期卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e招贷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同济</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期账单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>农商行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_limit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_valid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金均摊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每期还款额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单期手续费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>万元单期手续费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余期数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +544,7 @@
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="mm/dd;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +640,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,8 +688,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -505,13 +759,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,9 +858,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -870,8 +1173,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1446,4 +1749,992 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="28">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12">
+        <v>24</v>
+      </c>
+      <c r="F2" s="12">
+        <v>18</v>
+      </c>
+      <c r="G2" s="20">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>56000</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="26">
+        <v>20100.490000000002</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="27"/>
+      <c r="S2">
+        <v>64817.4</v>
+      </c>
+      <c r="T2">
+        <v>-1</v>
+      </c>
+      <c r="U2">
+        <f>IF(T2&gt;0,T2*S2,S2)</f>
+        <v>64817.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>20000</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="26">
+        <v>19896.12</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3">
+        <v>3.98</v>
+      </c>
+      <c r="T3">
+        <v>9</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U16" si="0">IF(T3&gt;0,T3*S3,S3)</f>
+        <v>35.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>46000</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="26">
+        <v>44288.67</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4">
+        <v>2155.37</v>
+      </c>
+      <c r="T4">
+        <v>17</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>36641.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="L5">
+        <f>1583+71.24</f>
+        <v>1654.24</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>24</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12">
+        <v>13</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>47500</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="26">
+        <v>47363.85</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="34">
+        <v>20100.490000000002</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>20100.490000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11">
+        <v>44863</v>
+      </c>
+      <c r="E7" s="12">
+        <v>18</v>
+      </c>
+      <c r="F7" s="12">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="L7">
+        <v>3.98</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="34">
+        <f>4402.71+190.19</f>
+        <v>4592.8999999999996</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>4592.8999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12">
+        <v>18</v>
+      </c>
+      <c r="F8" s="12">
+        <v>8</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="P8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="34">
+        <v>20100.490000000002</v>
+      </c>
+      <c r="T8">
+        <v>-1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>20100.490000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="12">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12">
+        <v>6</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>64000</v>
+      </c>
+      <c r="I9" s="30">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="33">
+        <v>45690</v>
+      </c>
+      <c r="K9">
+        <v>64817.4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="34">
+        <v>44288.67</v>
+      </c>
+      <c r="T9">
+        <v>-1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>44288.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12">
+        <v>30</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>51000</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="P10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="34">
+        <f>1583+71.24</f>
+        <v>1654.24</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>9925.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12">
+        <v>27</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>92000</v>
+      </c>
+      <c r="I11" s="30">
+        <v>26000</v>
+      </c>
+      <c r="J11" s="33">
+        <v>45693</v>
+      </c>
+      <c r="K11" s="26">
+        <v>74737.48</v>
+      </c>
+      <c r="P11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="34">
+        <v>47363.85</v>
+      </c>
+      <c r="T11">
+        <v>-1</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>47363.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="11">
+        <v>44591</v>
+      </c>
+      <c r="E12" s="12">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>32500</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="26">
+        <v>33422.21</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" s="34">
+        <v>23537.07</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>23537.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="11">
+        <v>45655</v>
+      </c>
+      <c r="E13" s="12">
+        <v>28</v>
+      </c>
+      <c r="F13" s="12">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13" s="26">
+        <v>26726.35</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>26726.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="P14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" s="34">
+        <v>74737.48</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>74737.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="P15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" s="34">
+        <v>33422.21</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>33422.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="33" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="7">
+        <v>45000</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="P16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="26">
+        <v>5666.69</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>5666.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
+        <v>17</v>
+      </c>
+      <c r="F17" s="12">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:23" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
+        <v>7</v>
+      </c>
+      <c r="F18" s="12">
+        <v>25</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12">
+        <v>7</v>
+      </c>
+      <c r="F19" s="12">
+        <v>25</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:23" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="7">
+        <v>50000</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:23" ht="33" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12">
+        <v>8</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
+        <v>3</v>
+      </c>
+      <c r="F22" s="12">
+        <v>23</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
+        <v>4</v>
+      </c>
+      <c r="F23" s="12">
+        <v>24</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18">
+        <v>27000</v>
+      </c>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>19</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="7">
+        <v>22000</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="P25" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>59</v>
+      </c>
+      <c r="R25" t="s">
+        <v>85</v>
+      </c>
+      <c r="S25" t="s">
+        <v>86</v>
+      </c>
+      <c r="T25" t="s">
+        <v>88</v>
+      </c>
+      <c r="U25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P26">
+        <v>74737.48</v>
+      </c>
+      <c r="Q26">
+        <v>48</v>
+      </c>
+      <c r="R26">
+        <f>P26/Q26</f>
+        <v>1557.0308333333332</v>
+      </c>
+      <c r="S26">
+        <v>1675.89</v>
+      </c>
+      <c r="T26">
+        <f>S26-R26</f>
+        <v>118.85916666666685</v>
+      </c>
+      <c r="U26">
+        <f>T26/P26*10000</f>
+        <v>15.903555574347283</v>
+      </c>
+      <c r="V26">
+        <f>S26*Q26</f>
+        <v>80442.720000000001</v>
+      </c>
+      <c r="W26">
+        <f>V26-P26</f>
+        <v>5705.2400000000052</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/assist/python/integer/credit_card/credit_info.xlsx
+++ b/assist/python/integer/credit_card/credit_info.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
   </bookViews>
   <sheets>
     <sheet name="credit_info" sheetId="1" r:id="rId1"/>
-    <sheet name="使用情况" sheetId="2" r:id="rId2"/>
+    <sheet name="贷款-分期" sheetId="3" r:id="rId2"/>
+    <sheet name="使用情况" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -200,8 +201,96 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>China</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>China:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+账单日</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>China:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+还款日</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>China:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+账单日刷卡计入当前周期</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
   <si>
     <t>交行-金卡</t>
   </si>
@@ -535,6 +624,46 @@
     <t>剩余期数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>浦发-联名卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海农商-分期卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行-分期卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1185</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交行-金卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建行-金卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行-金卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业-金卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发-金卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安-普卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -544,7 +673,7 @@
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="mm/dd;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,8 +785,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,6 +833,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -771,7 +913,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,8 +923,11 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,11 +1033,15 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1171,19 +1320,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
@@ -1297,63 +1442,64 @@
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>6</v>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="12">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" s="12">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3">
-        <v>19000</v>
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>47500</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>9</v>
+      <c r="B6" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="11">
+        <v>44863</v>
       </c>
       <c r="E6" s="12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="7">
-        <v>47500</v>
-      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>54</v>
+      <c r="B7" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="11">
-        <v>44863</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="12">
         <v>18</v>
@@ -1361,174 +1507,179 @@
       <c r="F7" s="12">
         <v>6</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7"/>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>64000</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>32</v>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="12">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F8" s="12">
-        <v>8</v>
-      </c>
-      <c r="H8" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>51000</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E9" s="12">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F9" s="12">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G9" s="22">
         <v>0</v>
       </c>
       <c r="H9" s="7">
-        <v>44000</v>
+        <v>92000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
+      <c r="B10" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="11">
+        <v>44591</v>
       </c>
       <c r="E10" s="12">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F10" s="12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G10" s="22">
         <v>1</v>
       </c>
       <c r="H10" s="7">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="11">
+        <v>45655</v>
       </c>
       <c r="E11" s="12">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F11" s="12">
-        <v>27</v>
-      </c>
-      <c r="G11" s="22">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>66000</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="11">
-        <v>44591</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="12">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3">
         <v>21</v>
       </c>
-      <c r="F12" s="12">
-        <v>10</v>
-      </c>
-      <c r="G12" s="22">
+      <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="7">
-        <v>32500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
+        <v>17</v>
+      </c>
+      <c r="F13" s="12">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
+        <v>7</v>
+      </c>
+      <c r="F14" s="12">
         <v>25</v>
       </c>
-      <c r="D13" s="11">
-        <v>45655</v>
-      </c>
-      <c r="E13" s="12">
-        <v>28</v>
-      </c>
-      <c r="F13" s="12">
-        <v>22</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -1536,212 +1687,66 @@
         <v>40</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12">
-        <v>27</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="12">
+        <v>25</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>28</v>
+      <c r="B16" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="12">
+        <v>3</v>
+      </c>
       <c r="F16" s="12">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="7">
-        <v>45000</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G16" s="35">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F17" s="12">
-        <v>6</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="G17" s="35">
+        <v>1</v>
+      </c>
       <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12">
-        <v>7</v>
-      </c>
-      <c r="F18" s="12">
-        <v>25</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12">
-        <v>7</v>
-      </c>
-      <c r="F19" s="12">
-        <v>25</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="7">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12">
-        <v>8</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
-        <v>3</v>
-      </c>
-      <c r="F22" s="12">
-        <v>23</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12">
-        <v>4</v>
-      </c>
-      <c r="F23" s="12">
-        <v>24</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
-        <v>19</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="7">
-        <v>22000</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1753,17 +1758,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12">
+        <v>18</v>
+      </c>
+      <c r="F3" s="12">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18">
+        <v>27000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="A1:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
@@ -2512,7 +2651,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:23" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>40</v>
       </c>
@@ -2529,7 +2668,9 @@
       <c r="F18" s="12">
         <v>25</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -2551,12 +2692,14 @@
       <c r="F19" s="12">
         <v>25</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:23" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="33" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
@@ -2576,7 +2719,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:23" ht="33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
@@ -2615,7 +2758,9 @@
       <c r="F22" s="12">
         <v>23</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="35">
+        <v>1</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
@@ -2637,7 +2782,9 @@
       <c r="F23" s="12">
         <v>24</v>
       </c>
-      <c r="G23" s="12"/>
+      <c r="G23" s="35">
+        <v>1</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>

--- a/assist/python/integer/credit_card/credit_info.xlsx
+++ b/assist/python/integer/credit_card/credit_info.xlsx
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/assist/python/integer/credit_card/credit_info.xlsx
+++ b/assist/python/integer/credit_card/credit_info.xlsx
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="103">
   <si>
     <t>交行-金卡</t>
   </si>
@@ -664,14 +664,18 @@
     <t>平安-普卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>valid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="mm/dd;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -946,10 +950,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -961,7 +965,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,7 +986,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,13 +1022,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1323,12 +1327,13 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
@@ -1345,7 +1350,7 @@
         <v>50</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>55</v>
@@ -1636,7 +1641,9 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <v>18000</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -1658,7 +1665,9 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>26000</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -1680,7 +1689,9 @@
       <c r="G14" s="23">
         <v>0</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>90000</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
@@ -1702,7 +1713,9 @@
       <c r="G15" s="12">
         <v>0</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <v>59000</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
@@ -1724,7 +1737,9 @@
       <c r="G16" s="35">
         <v>1</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7">
+        <v>39700</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -1746,7 +1761,9 @@
       <c r="G17" s="35">
         <v>1</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7">
+        <v>17000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
